--- a/biology/Botanique/Coussapoa_latifolia/Coussapoa_latifolia.xlsx
+++ b/biology/Botanique/Coussapoa_latifolia/Coussapoa_latifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coussapoa latifolia est une espèce de plantes à fleurs de la famille des Urticaceae (anciennement des Cecropiaceae).
 Coussapoa latifolia Aubl. est l'espèce type du genre Coussapoa Aubl..
-C'est un arbre hémiépiphyte primaire. En Guyane, on appelait cet arbre coussapoui chez les Galibis[3].
+C'est un arbre hémiépiphyte primaire. En Guyane, on appelait cet arbre coussapoui chez les Galibis.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire naturelle</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci[3] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet rapporte ceci : 
 « COUSSAPOA latifolia. (Tabula 362)
 Arbor ſexaginta-pedalis &amp; ampliùs, ad cacumen trunci ramoſa; Ramuli cylindracci, tubuloſi, fragiles. Folia ovata, obtuſa, glabra, ſubtùs rufeſcentia, ſuipernè viridia, integerrima, petiolata. Stipula monophylla, amplexicaulis, oppoſitifolia, oblonga, conica, latere interno dehiſcens, gemmam includens. Flores corymboſi, axillares. Fructus luteſcentes conſtant è pluribus feminibus pulpa involutis, &amp; in capitulum rotundum collectis.
 Folia lacerata, cortex trunci aut ramorum vulneratus, ſuccum luteſcentem efſundunt.
